--- a/实验数据结果记录_weight.xlsx
+++ b/实验数据结果记录_weight.xlsx
@@ -1415,7 +1415,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/实验数据结果记录_weight.xlsx
+++ b/实验数据结果记录_weight.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="230">
   <si>
     <t>L=3</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,822 @@
   </si>
   <si>
     <t>带权值（三维敏感属性：education(16)，occupation(14)，marital-status(7)，workclass(8)，race(5)）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297(38)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>443(23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>574(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>693(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>784(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>860(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>171(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>594(31)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>921(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1143(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1287(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1495(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1730(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>251(69)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>925(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1413(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1710(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1939(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2215(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2520(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>323(111)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1109(56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1754(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2223(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2544(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2927(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3250(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>414(138)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1434(61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1982(40)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2738(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3154(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3602(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4049(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>442(142)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1743(67)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2668(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3270(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3727(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4329(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4969(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>576(192)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2101(84)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3170(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3898(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4405(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5161(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5679(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>607(201)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2994(86)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3505(61)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4354(24)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4966(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5645(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6350(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>732(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2509(101)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3866(64)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4819(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5520(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6430(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7338(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>827(221)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2821(99)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4218(72)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5386(29)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6157(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7143(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8119(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>168(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>515(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>790(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>958(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>205(43)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1008(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1564(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1881(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>341(63)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1424(36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2317(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2825(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>336(92)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920(45)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3096(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3754(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>510(102)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2344(56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3715(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4599(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>482(106)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2820(60)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4551(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5569(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>708(124)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3228(77)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5291(23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6462(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>798(146)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3746(84)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6040(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7393(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>874(186)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4332(93)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6693(27)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8276(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939(201)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4759(126)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7456(36)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9220(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>742(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>933(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14(12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>733(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1471(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1861(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1979(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1189(19)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2239(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2787(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2965(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1522(34)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2898(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3745(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3951(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2172(56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3631(34)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4610(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4965(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2176(76)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4382(28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5585(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5916(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2650(82)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5170(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6609(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6944(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3058(74)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5933(32)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7549(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7923(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3444(92)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6582(28)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8290(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8860(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3842(90)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7256(39)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9231(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9860(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>880(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>972(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>995(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1755(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1920(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1995(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2583(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2875(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2995(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3456(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3848(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3970(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4332(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4797(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5189(13)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5746(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5975(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6081(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6731(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6945(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6915(14)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7674(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7930(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7776(21)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8629(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8940(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8680(18)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9593(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9935(0)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -195,6 +1011,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +1301,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -540,244 +1362,796 @@
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5">
+        <v>23</v>
+      </c>
+      <c r="F3" s="5">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5">
+        <v>33</v>
+      </c>
+      <c r="I3" s="5">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="5">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
+        <v>33</v>
+      </c>
+      <c r="E7" s="5">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5">
+        <v>50</v>
+      </c>
+      <c r="G7" s="5">
+        <v>63</v>
+      </c>
+      <c r="H7" s="5">
+        <v>64</v>
+      </c>
+      <c r="I7" s="5">
+        <v>75</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="5">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5">
+        <v>42</v>
+      </c>
+      <c r="D11" s="5">
+        <v>87</v>
+      </c>
+      <c r="E11" s="5">
+        <v>97</v>
+      </c>
+      <c r="F11" s="5">
+        <v>98</v>
+      </c>
+      <c r="G11" s="5">
+        <v>106</v>
+      </c>
+      <c r="H11" s="5">
+        <v>130</v>
+      </c>
+      <c r="I11" s="5">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
+      <c r="B12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="5">
+        <v>12</v>
+      </c>
+      <c r="C15" s="5">
+        <v>48</v>
+      </c>
+      <c r="D15" s="5">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5">
+        <v>147</v>
+      </c>
+      <c r="F15" s="5">
+        <v>161</v>
+      </c>
+      <c r="G15" s="5">
+        <v>171</v>
+      </c>
+      <c r="H15" s="5">
+        <v>191</v>
+      </c>
+      <c r="I15" s="5">
+        <v>213</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
+      <c r="B19" s="5">
+        <v>17</v>
+      </c>
+      <c r="C19" s="5">
+        <v>71</v>
+      </c>
+      <c r="D19" s="5">
+        <v>163</v>
+      </c>
+      <c r="E19" s="5">
+        <v>216</v>
+      </c>
+      <c r="F19" s="5">
+        <v>258</v>
+      </c>
+      <c r="G19" s="5">
+        <v>296</v>
+      </c>
+      <c r="H19" s="5">
+        <v>293</v>
+      </c>
+      <c r="I19" s="5">
+        <v>318</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
+      <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
+      <c r="B23" s="5">
+        <v>8</v>
+      </c>
+      <c r="C23" s="5">
+        <v>108</v>
+      </c>
+      <c r="D23" s="5">
+        <v>219</v>
+      </c>
+      <c r="E23" s="5">
+        <v>328</v>
+      </c>
+      <c r="F23" s="5">
+        <v>370</v>
+      </c>
+      <c r="G23" s="5">
+        <v>421</v>
+      </c>
+      <c r="H23" s="5">
+        <v>424</v>
+      </c>
+      <c r="I23" s="5">
+        <v>492</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
+      <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
+      <c r="B27" s="5">
+        <v>18</v>
+      </c>
+      <c r="C27" s="5">
+        <v>109</v>
+      </c>
+      <c r="D27" s="5">
+        <v>244</v>
+      </c>
+      <c r="E27" s="5">
+        <v>323</v>
+      </c>
+      <c r="F27" s="5">
+        <v>468</v>
+      </c>
+      <c r="G27" s="5">
+        <v>488</v>
+      </c>
+      <c r="H27" s="5">
+        <v>510</v>
+      </c>
+      <c r="I27" s="5">
+        <v>481</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>17</v>
       </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>5</v>
       </c>
+      <c r="B31" s="5">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5">
+        <v>124</v>
+      </c>
+      <c r="D31" s="5">
+        <v>303</v>
+      </c>
+      <c r="E31" s="5">
+        <v>440</v>
+      </c>
+      <c r="F31" s="5">
+        <v>489</v>
+      </c>
+      <c r="G31" s="5">
+        <v>535</v>
+      </c>
+      <c r="H31" s="5">
+        <v>567</v>
+      </c>
+      <c r="I31" s="5">
+        <v>618</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
+      <c r="B32" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>5</v>
       </c>
+      <c r="B35" s="5">
+        <v>15</v>
+      </c>
+      <c r="C35" s="5">
+        <v>178</v>
+      </c>
+      <c r="D35" s="5">
+        <v>356</v>
+      </c>
+      <c r="E35" s="5">
+        <v>517</v>
+      </c>
+      <c r="F35" s="5">
+        <v>596</v>
+      </c>
+      <c r="G35" s="5">
+        <v>763</v>
+      </c>
+      <c r="H35" s="5">
+        <v>726</v>
+      </c>
+      <c r="I35" s="5">
+        <v>811</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
+      <c r="B36" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
       </c>
+      <c r="B39" s="5">
+        <v>23</v>
+      </c>
+      <c r="C39" s="5">
+        <v>201</v>
+      </c>
+      <c r="D39" s="5">
+        <v>436</v>
+      </c>
+      <c r="E39" s="5">
+        <v>603</v>
+      </c>
+      <c r="F39" s="5">
+        <v>706</v>
+      </c>
+      <c r="G39" s="5">
+        <v>899</v>
+      </c>
+      <c r="H39" s="5">
+        <v>962</v>
+      </c>
+      <c r="I39" s="5">
+        <v>1002</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -795,7 +2169,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -850,10 +2224,40 @@
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -876,10 +2280,40 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -902,10 +2336,40 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>36</v>
+      </c>
+      <c r="D11">
+        <v>90</v>
+      </c>
+      <c r="E11">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>130</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -928,10 +2392,40 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>136</v>
+      </c>
+      <c r="E15">
+        <v>184</v>
+      </c>
+      <c r="F15">
+        <v>207</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -954,10 +2448,40 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>237</v>
+      </c>
+      <c r="E19">
+        <v>332</v>
+      </c>
+      <c r="F19">
+        <v>362</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -980,10 +2504,40 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>342</v>
+      </c>
+      <c r="E23">
+        <v>435</v>
+      </c>
+      <c r="F23">
+        <v>500</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1006,10 +2560,40 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>139</v>
+      </c>
+      <c r="D27">
+        <v>451</v>
+      </c>
+      <c r="E27">
+        <v>645</v>
+      </c>
+      <c r="F27">
+        <v>753</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1032,10 +2616,40 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>176</v>
+      </c>
+      <c r="D31">
+        <v>492</v>
+      </c>
+      <c r="E31">
+        <v>717</v>
+      </c>
+      <c r="F31">
+        <v>890</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1058,10 +2672,40 @@
       <c r="A35" t="s">
         <v>5</v>
       </c>
+      <c r="B35">
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <v>196</v>
+      </c>
+      <c r="D35">
+        <v>649</v>
+      </c>
+      <c r="E35">
+        <v>1000</v>
+      </c>
+      <c r="F35">
+        <v>1120</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1084,10 +2728,40 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>244</v>
+      </c>
+      <c r="D39">
+        <v>878</v>
+      </c>
+      <c r="E39">
+        <v>1271</v>
+      </c>
+      <c r="F39">
+        <v>1479</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1103,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1158,10 +2832,40 @@
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1184,10 +2888,40 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>92</v>
+      </c>
+      <c r="F7">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E8" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1210,10 +2944,40 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>161</v>
+      </c>
+      <c r="E11">
+        <v>180</v>
+      </c>
+      <c r="F11">
+        <v>187</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1236,10 +3000,40 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>170</v>
+      </c>
+      <c r="D15">
+        <v>267</v>
+      </c>
+      <c r="E15">
+        <v>335</v>
+      </c>
+      <c r="F15">
+        <v>326</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1262,10 +3056,40 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>277</v>
+      </c>
+      <c r="D19">
+        <v>396</v>
+      </c>
+      <c r="E19">
+        <v>502</v>
+      </c>
+      <c r="F19">
+        <v>502</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1288,10 +3112,40 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>343</v>
+      </c>
+      <c r="D23">
+        <v>572</v>
+      </c>
+      <c r="E23">
+        <v>660</v>
+      </c>
+      <c r="F23">
+        <v>697</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>180</v>
+      </c>
+      <c r="E24" t="s">
+        <v>181</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1314,10 +3168,40 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>439</v>
+      </c>
+      <c r="D27">
+        <v>744</v>
+      </c>
+      <c r="E27">
+        <v>911</v>
+      </c>
+      <c r="F27">
+        <v>873</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>184</v>
+      </c>
+      <c r="D28" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1340,10 +3224,40 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
+      <c r="B31">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>617</v>
+      </c>
+      <c r="D31">
+        <v>986</v>
+      </c>
+      <c r="E31">
+        <v>1287</v>
+      </c>
+      <c r="F31">
+        <v>1127</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1366,10 +3280,40 @@
       <c r="A35" t="s">
         <v>5</v>
       </c>
+      <c r="B35">
+        <v>27</v>
+      </c>
+      <c r="C35">
+        <v>812</v>
+      </c>
+      <c r="D35">
+        <v>1310</v>
+      </c>
+      <c r="E35">
+        <v>1414</v>
+      </c>
+      <c r="F35">
+        <v>1497</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="F36" t="s">
+        <v>195</v>
       </c>
       <c r="H36" t="s">
         <v>21</v>
@@ -1395,10 +3339,40 @@
       <c r="A39" t="s">
         <v>5</v>
       </c>
+      <c r="B39">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>1030</v>
+      </c>
+      <c r="D39">
+        <v>2163</v>
+      </c>
+      <c r="E39">
+        <v>2115</v>
+      </c>
+      <c r="F39">
+        <v>1867</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" t="s">
+        <v>199</v>
+      </c>
+      <c r="F40" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -1414,8 +3388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1469,10 +3443,40 @@
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>118</v>
+      </c>
+      <c r="D3">
+        <v>137</v>
+      </c>
+      <c r="E3">
+        <v>140</v>
+      </c>
+      <c r="F3">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1495,10 +3499,28 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>248</v>
+      </c>
+      <c r="C7">
+        <v>312</v>
+      </c>
+      <c r="D7">
+        <v>289</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1521,10 +3543,28 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
+      <c r="B11">
+        <v>663</v>
+      </c>
+      <c r="C11">
+        <v>696</v>
+      </c>
+      <c r="D11">
+        <v>656</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1547,10 +3587,28 @@
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="B15">
+        <v>1083</v>
+      </c>
+      <c r="C15">
+        <v>1144</v>
+      </c>
+      <c r="D15">
+        <v>1187</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C16" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1573,10 +3631,28 @@
       <c r="A19" t="s">
         <v>5</v>
       </c>
+      <c r="B19">
+        <v>1578</v>
+      </c>
+      <c r="C19">
+        <v>1753</v>
+      </c>
+      <c r="D19">
+        <v>1599</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D20" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1599,10 +3675,28 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
+      <c r="B23">
+        <v>2405</v>
+      </c>
+      <c r="C23">
+        <v>3437</v>
+      </c>
+      <c r="D23">
+        <v>3492</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1625,10 +3719,28 @@
       <c r="A27" t="s">
         <v>5</v>
       </c>
+      <c r="B27">
+        <v>3630</v>
+      </c>
+      <c r="C27">
+        <v>6145</v>
+      </c>
+      <c r="D27">
+        <v>3685</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D28" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1651,10 +3763,28 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
+      <c r="B31">
+        <v>7564</v>
+      </c>
+      <c r="C31">
+        <v>6900</v>
+      </c>
+      <c r="D31">
+        <v>6426</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C32" t="s">
+        <v>222</v>
+      </c>
+      <c r="D32" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1677,10 +3807,28 @@
       <c r="A35" t="s">
         <v>5</v>
       </c>
+      <c r="B35">
+        <v>6438</v>
+      </c>
+      <c r="C35">
+        <v>10573</v>
+      </c>
+      <c r="D35">
+        <v>7518</v>
+      </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1698,10 +3846,28 @@
       <c r="A38" t="s">
         <v>19</v>
       </c>
+      <c r="B38">
+        <v>7357</v>
+      </c>
+      <c r="C38">
+        <v>11822</v>
+      </c>
+      <c r="D38">
+        <v>10418</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
